--- a/Exercise_3.3.xlsx
+++ b/Exercise_3.3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\ABE65100\2020Grading\Python - Learning The Basics-01-29-2020-05-25-17\RedpandaTheNinja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C420C6F-11C5-4AB6-AAEA-5D5DB292B2BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C325E91E-63B2-4728-A12F-AD4FC67454EA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11385" xr2:uid="{70B9C94D-AB40-4B01-A8E7-2F6A688A3993}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{70B9C94D-AB40-4B01-A8E7-2F6A688A3993}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="30">
   <si>
     <t>Does not meet expectations</t>
   </si>
@@ -114,7 +114,13 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>Does not finish plotting a full grid pattern</t>
+    <t>Does not finish plotting a full grid pattern - Fixed with resubmit</t>
+  </si>
+  <si>
+    <t>Fixed with resubmit</t>
+  </si>
+  <si>
+    <t>fixed with resubmit</t>
   </si>
 </sst>
 </file>
@@ -231,6 +237,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -240,20 +258,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,7 +578,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:G8"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,22 +593,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14" t="s">
+      <c r="E1" s="18"/>
+      <c r="F1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14" t="s">
+      <c r="G1" s="18"/>
+      <c r="H1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="18"/>
       <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
@@ -646,28 +652,28 @@
         <v>4</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="7"/>
+      <c r="E3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="7">
         <v>1</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="18">
+      <c r="J3" s="14">
         <f>IF(B3,A4*B4*J$11,IF(D3,A4*D4*J$11,IF(F3,A4*F4*J$11,IF(H3,A4*H4*J$11))))</f>
-        <v>2.7</v>
-      </c>
-      <c r="K3" s="12" t="s">
+        <v>5.4</v>
+      </c>
+      <c r="K3" s="16" t="s">
         <v>27</v>
       </c>
     </row>
@@ -678,49 +684,51 @@
       <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="17"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="2">
         <v>0.45</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="13"/>
       <c r="F4" s="1">
         <v>0.9</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="17"/>
     </row>
     <row r="5" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="7">
         <v>1</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>16</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="18">
+      <c r="J5" s="14">
         <f>IF(B5,A6*B6*J$11,IF(D5,A6*D6*J$11,IF(F5,A6*F6*J$11,IF(H5,A6*H6*J$11))))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="12"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -729,49 +737,51 @@
       <c r="B6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" s="17"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="2">
         <v>0.45</v>
       </c>
-      <c r="E6" s="17"/>
+      <c r="E6" s="13"/>
       <c r="F6" s="1">
         <v>0.9</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="17"/>
     </row>
     <row r="7" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="7"/>
+      <c r="C7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>17</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="14">
         <f>IF(B7,A8*B8*J$11,IF(D7,A8*D8*J$11,IF(F7,A8*F8*J$11,IF(H7,A8*H8*J$11))))</f>
-        <v>0</v>
-      </c>
-      <c r="K7" s="12"/>
+        <v>4.0500000000000007</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -780,21 +790,21 @@
       <c r="B8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" s="16"/>
+      <c r="C8" s="19"/>
       <c r="D8" s="2">
         <v>0.45</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="1">
         <v>0.9</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="1">
         <v>1</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="17"/>
     </row>
     <row r="10" spans="1:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
@@ -809,7 +819,7 @@
       </c>
       <c r="J10" s="8">
         <f>SUM(J3:J8)</f>
-        <v>2.7</v>
+        <v>13.500000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
@@ -823,12 +833,6 @@
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="22">
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="J7:J8"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="K5:K6"/>
     <mergeCell ref="K7:K8"/>
@@ -845,6 +849,12 @@
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="G5:G6"/>
     <mergeCell ref="G3:G4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J7:J8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
